--- a/data/trans_dic/P1403-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1403-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.303493678162032</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3501908794229439</v>
+        <v>0.3501908794229441</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3351965600411055</v>
@@ -685,7 +685,7 @@
         <v>0.3805421184530533</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.486817960064083</v>
+        <v>0.4868179600640831</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3026138312976295</v>
@@ -697,7 +697,7 @@
         <v>0.3473111226302605</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4303938677585532</v>
+        <v>0.430393867758553</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2342605500565539</v>
+        <v>0.2337990721748418</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3189877979542561</v>
+        <v>0.3197077179011723</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2728480580518701</v>
+        <v>0.2725125384881124</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.31545510988012</v>
+        <v>0.3169302852476056</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3067737933319505</v>
+        <v>0.3069020367925904</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3981438808731111</v>
+        <v>0.3946168650314865</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3475413382664795</v>
+        <v>0.3496366731279108</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4581692791394739</v>
+        <v>0.4589070191848078</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2867333155985969</v>
+        <v>0.2838480053964857</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3725741992189621</v>
+        <v>0.3711939620530113</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3252033872281734</v>
+        <v>0.3251385701342275</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4095183429327675</v>
+        <v>0.4096079243948501</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2872820679049125</v>
+        <v>0.2889742110912572</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3814706631022406</v>
+        <v>0.3839586074592476</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3348777898558359</v>
+        <v>0.3424928892858295</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.389751169423996</v>
+        <v>0.3903339568605688</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3608397329270603</v>
+        <v>0.3598806513995829</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4546232660340414</v>
+        <v>0.4486791473036044</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4145590690773324</v>
+        <v>0.4142832640052195</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5144986221089335</v>
+        <v>0.5120012677546187</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3235522876059372</v>
+        <v>0.3216254302379659</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4150432618935914</v>
+        <v>0.4162633749784336</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3728176868902265</v>
+        <v>0.3715891757697474</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.454025956751575</v>
+        <v>0.4527517533922586</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05849119404679491</v>
+        <v>0.05840565206035808</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0850093250048989</v>
+        <v>0.08481735408270751</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09673070179139973</v>
+        <v>0.09550437102211155</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.142716413114571</v>
+        <v>0.1431530900986112</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05505835655011964</v>
+        <v>0.05344183086788586</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07002889326162483</v>
+        <v>0.06964387941193592</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.09591476016851846</v>
+        <v>0.09583856864611906</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1246790048065885</v>
+        <v>0.1236507740207</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06012675541271488</v>
+        <v>0.0597886833965609</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08115353543435008</v>
+        <v>0.08086071221367376</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1000248005093042</v>
+        <v>0.09893840772906497</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1375737845247249</v>
+        <v>0.1378780316145532</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08241430390760664</v>
+        <v>0.08326428300826257</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1116219635396073</v>
+        <v>0.1112763162055143</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1240458045071107</v>
+        <v>0.12308531376468</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1719359963947816</v>
+        <v>0.1732659314080022</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07780493680487792</v>
+        <v>0.07781530759879726</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09815973872723446</v>
+        <v>0.09834103879682897</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1250543616901836</v>
+        <v>0.1253858700799874</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1480564089949921</v>
+        <v>0.1476787656074881</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07797231119791088</v>
+        <v>0.07764549845147206</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1002310670125427</v>
+        <v>0.1005120191290449</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1210595220537948</v>
+        <v>0.1193075210929784</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1557571946393801</v>
+        <v>0.157574530057118</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1027349170186439</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1720088012267926</v>
+        <v>0.1720088012267925</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.05840445940776932</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05173196372081135</v>
+        <v>0.05009508647006865</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06492191162233478</v>
+        <v>0.06449621945803193</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07750161687273764</v>
+        <v>0.07740343788685528</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1464028352337543</v>
+        <v>0.1467271383393552</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.039517025219063</v>
+        <v>0.040090456037872</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04601447592927731</v>
+        <v>0.04523069039477133</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03855485133092888</v>
+        <v>0.03772711208851103</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0982060500870772</v>
+        <v>0.09872078638295363</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04968213561314246</v>
+        <v>0.05072090981940847</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06165017496854897</v>
+        <v>0.06185735648947163</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06347572730985432</v>
+        <v>0.06367173105168113</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1281398542640565</v>
+        <v>0.127285935533444</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09775120649058082</v>
+        <v>0.09769326219504888</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1243427385166436</v>
+        <v>0.1224934614166169</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1333806950021418</v>
+        <v>0.1364626220866975</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1975879157796114</v>
+        <v>0.1993420704670515</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08296536090729933</v>
+        <v>0.08296129510840784</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09951131305780948</v>
+        <v>0.1019279342437908</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08681602447151096</v>
+        <v>0.08544402420894151</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1362072511003201</v>
+        <v>0.1362398942362047</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08186603596231685</v>
+        <v>0.08021943228778117</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.100461744657868</v>
+        <v>0.09991754000365793</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1002335154843624</v>
+        <v>0.09827239142829428</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1598534514652951</v>
+        <v>0.159036231393962</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1190774442169663</v>
+        <v>0.1199360001544244</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1565960257042991</v>
+        <v>0.1542756282108993</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1384836323213815</v>
+        <v>0.1393551301409634</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1796904552855406</v>
+        <v>0.1774264664881384</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1572873601588115</v>
+        <v>0.1570960726635292</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1955624506725158</v>
+        <v>0.1959248703870761</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.163881301293882</v>
+        <v>0.1644421667171634</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1985646564493058</v>
+        <v>0.1999741264806519</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1410635251657069</v>
+        <v>0.14192235129128</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1786156330510075</v>
+        <v>0.1797272860375281</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1552065014567118</v>
+        <v>0.1563151367900615</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1923728310026104</v>
+        <v>0.1922211488267585</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.140764783986977</v>
+        <v>0.1420972124981716</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1821495817089553</v>
+        <v>0.1808827170094543</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1640105656213535</v>
+        <v>0.1644490183247872</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2042086661721059</v>
+        <v>0.2041317388951899</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1824461428922814</v>
+        <v>0.1815213150850077</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2246962868872243</v>
+        <v>0.2252862115836032</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1914440832233501</v>
+        <v>0.1919659180120621</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2189880052115679</v>
+        <v>0.221912887489089</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1583193070288458</v>
+        <v>0.1593495410290106</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.198734888558409</v>
+        <v>0.1986558567153272</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1741713296476161</v>
+        <v>0.1741429620881319</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2093613693517853</v>
+        <v>0.2091752029379</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>241692</v>
+        <v>241216</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>310899</v>
+        <v>311601</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>205822</v>
+        <v>205569</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>182012</v>
+        <v>182863</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>403442</v>
+        <v>403611</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>532194</v>
+        <v>527480</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>345685</v>
+        <v>347770</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>375763</v>
+        <v>376368</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>672916</v>
+        <v>666144</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>861142</v>
+        <v>857952</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>568783</v>
+        <v>568670</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>572147</v>
+        <v>572272</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>296396</v>
+        <v>298141</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>371798</v>
+        <v>374223</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>252614</v>
+        <v>258358</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>224879</v>
+        <v>225216</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>474545</v>
+        <v>473284</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>607689</v>
+        <v>599744</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>412345</v>
+        <v>412071</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>421961</v>
+        <v>419913</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>759324</v>
+        <v>754802</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>959302</v>
+        <v>962122</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>652061</v>
+        <v>649912</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>634330</v>
+        <v>632549</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>99050</v>
+        <v>98905</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>166955</v>
+        <v>166578</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>200850</v>
+        <v>198304</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>318071</v>
+        <v>319044</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>87415</v>
+        <v>84848</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>122872</v>
+        <v>122197</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>190707</v>
+        <v>190556</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>270350</v>
+        <v>268121</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>197281</v>
+        <v>196172</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>301773</v>
+        <v>300685</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>406569</v>
+        <v>402153</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>604921</v>
+        <v>606259</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>139561</v>
+        <v>141001</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>219221</v>
+        <v>218542</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>257567</v>
+        <v>255572</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>383193</v>
+        <v>386157</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>123529</v>
+        <v>123545</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>172230</v>
+        <v>172548</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>248646</v>
+        <v>249305</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>321041</v>
+        <v>320223</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>255834</v>
+        <v>254762</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>372714</v>
+        <v>373759</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>492069</v>
+        <v>484947</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>684875</v>
+        <v>692866</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>28525</v>
+        <v>27623</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>31239</v>
+        <v>31034</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>42385</v>
+        <v>42331</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>103835</v>
+        <v>104065</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>18826</v>
+        <v>19100</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>21104</v>
+        <v>20744</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>21172</v>
+        <v>20717</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>72102</v>
+        <v>72480</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>51064</v>
+        <v>52132</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>57940</v>
+        <v>58134</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>69571</v>
+        <v>69786</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>184962</v>
+        <v>183729</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>53901</v>
+        <v>53869</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>59831</v>
+        <v>58942</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>72944</v>
+        <v>74629</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>140138</v>
+        <v>141382</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>39526</v>
+        <v>39524</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>45639</v>
+        <v>46747</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>47674</v>
+        <v>46921</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>100003</v>
+        <v>100027</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>84144</v>
+        <v>82451</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>94415</v>
+        <v>93904</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>109859</v>
+        <v>107709</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>230738</v>
+        <v>229559</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>390162</v>
+        <v>392975</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>535524</v>
+        <v>527589</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>467745</v>
+        <v>470688</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>631597</v>
+        <v>623639</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>531505</v>
+        <v>530859</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>694229</v>
+        <v>695516</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>578845</v>
+        <v>580826</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>739198</v>
+        <v>744445</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>938882</v>
+        <v>944598</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1244896</v>
+        <v>1252644</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1072433</v>
+        <v>1080094</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1392322</v>
+        <v>1391225</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>461222</v>
+        <v>465588</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>622912</v>
+        <v>618579</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>553965</v>
+        <v>555446</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>717777</v>
+        <v>717506</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>616521</v>
+        <v>613396</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>797652</v>
+        <v>799746</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>676200</v>
+        <v>678043</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>815228</v>
+        <v>826117</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1053732</v>
+        <v>1060589</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1385121</v>
+        <v>1384570</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1203475</v>
+        <v>1203279</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1515279</v>
+        <v>1513932</v>
       </c>
     </row>
     <row r="20">
